--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-925814.4782255969</v>
+        <v>-900236.5332525953</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17449938.18306644</v>
+        <v>16775128.44796223</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9838295.818242928</v>
+        <v>9876579.345516495</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>294.8362868904684</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>185.4360982642042</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7.264602967362011</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>241.8422367746819</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>291.6868729214141</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>30.15774997692755</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.8563788557981</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>67.84972440587282</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1066,10 +1066,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>32.36127543482709</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>231.1353383520078</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>56.63677140718762</v>
       </c>
       <c r="V10" t="n">
-        <v>108.0126468647816</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1379,16 +1379,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>138.3174296535956</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>43.50227358398478</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.45405731752537</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>50.38971918733143</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>71.49788411901469</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629676</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800292</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520777043</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>180.8611112561202</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>50.38971918733571</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>144.4937753855486</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>212.5023562141204</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>54.49360828358933</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3439,7 +3439,7 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277814</v>
       </c>
       <c r="I37" t="n">
         <v>71.53763939432405</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3661,7 +3661,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432345</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934483</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185824</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U40" t="n">
         <v>259.4129604006783</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3898,7 +3898,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934483</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -4150,7 +4150,7 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277812</v>
       </c>
       <c r="I46" t="n">
         <v>71.53763939432405</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1357.762053393192</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C2" t="n">
-        <v>1323.65998461702</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.790603831868</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W2" t="n">
-        <v>1399.368998877924</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X2" t="n">
-        <v>1384.266939497639</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.021219837696</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>641.6303871312145</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>469.0686756144395</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>469.0686756144395</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>299.3106718651768</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>226.3304742981161</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>60.73919932394372</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>91.3608564523079</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>509.5707382202689</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>929.6236371651722</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>641.6303871312145</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>641.6303871312145</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>641.6303871312145</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>812.854954171005</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C5" t="n">
-        <v>384.2732799082734</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>352.403899123122</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="V5" t="n">
-        <v>855.2769502042993</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W5" t="n">
-        <v>854.4618996557366</v>
+        <v>2234.742998128393</v>
       </c>
       <c r="X5" t="n">
-        <v>839.3598402754513</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y5" t="n">
-        <v>835.1141206155088</v>
+        <v>1407.314411007357</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>807.508379929692</v>
+        <v>1028.432740781182</v>
       </c>
       <c r="C7" t="n">
-        <v>634.9466684129169</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>469.0686756144395</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>299.3106718651768</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>761.8145120199619</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W7" t="n">
-        <v>992.2117929153466</v>
+        <v>1693.062784852649</v>
       </c>
       <c r="X7" t="n">
-        <v>992.2117929153466</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y7" t="n">
-        <v>992.2117929153466</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>566.9368585819652</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>128.7943857653885</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>96.92500498023705</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>67.19066417893629</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>43.36363862854808</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36363862854808</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36363862854808</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36363862854808</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.618326081466</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>478.618326081466</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>478.618326081466</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>478.618326081466</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>478.618326081466</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>925.7778106177824</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1462.402838646065</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1999.027866674347</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.181931427404</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2084.530057611241</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="T8" t="n">
-        <v>1864.462830484279</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="U8" t="n">
-        <v>1605.240527801296</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="V8" t="n">
-        <v>1242.623577735123</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W8" t="n">
-        <v>837.7681231461561</v>
+        <v>2636.557618877989</v>
       </c>
       <c r="X8" t="n">
-        <v>822.6660637658708</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y8" t="n">
-        <v>589.196025026469</v>
+        <v>2617.209839837762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.5353836198409</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.0789224564832</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9886336030364</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>253.8682189299901</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.4843805461517</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.09929081233561</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36363862854808</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36363862854808</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>367.9219635947604</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>904.5469916230428</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>904.5469916230428</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>904.5469916230428</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>904.5469916230428</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>904.5469916230428</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.805593984735</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.430622013017</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.603400107357</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.14796255574</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1512.969318886342</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.63277188631</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.515253948309</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.1924996815033</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.3250639203833</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.839284699604</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1122.421799240429</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C10" t="n">
-        <v>949.8600877236544</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D10" t="n">
-        <v>783.9820949251771</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>614.2240911759144</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>437.5170371376706</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>271.9257621634982</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>132.0235878538728</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36363862854808</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>129.9433237932379</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>404.7017783643735</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>822.9116601323346</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1282.395527313248</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1724.654330470892</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2144.323579696673</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2168.181931427404</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2168.181931427404</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2168.181931427404</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2168.181931427404</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2168.181931427404</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2168.181931427404</v>
+        <v>2186.313330005992</v>
       </c>
       <c r="V10" t="n">
-        <v>2059.078247725604</v>
+        <v>1899.357821876422</v>
       </c>
       <c r="W10" t="n">
-        <v>1787.051843311896</v>
+        <v>1627.331417462714</v>
       </c>
       <c r="X10" t="n">
-        <v>1541.660088645308</v>
+        <v>1381.939662796126</v>
       </c>
       <c r="Y10" t="n">
-        <v>1314.240417959417</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1369.067456673227</v>
+        <v>2497.283109396588</v>
       </c>
       <c r="C11" t="n">
-        <v>1369.067456673227</v>
+        <v>2059.140636580011</v>
       </c>
       <c r="D11" t="n">
-        <v>933.1576718476711</v>
+        <v>1623.230851754456</v>
       </c>
       <c r="E11" t="n">
-        <v>499.3829270059664</v>
+        <v>1189.456106912751</v>
       </c>
       <c r="F11" t="n">
-        <v>499.3829270059664</v>
+        <v>761.5886773219587</v>
       </c>
       <c r="G11" t="n">
-        <v>359.668351598294</v>
+        <v>360.1908459452226</v>
       </c>
       <c r="H11" t="n">
-        <v>70.5381970415102</v>
+        <v>71.06069138843885</v>
       </c>
       <c r="I11" t="n">
-        <v>70.5381970415102</v>
+        <v>70.64390201557886</v>
       </c>
       <c r="J11" t="n">
-        <v>237.1267497530849</v>
+        <v>70.64390201557886</v>
       </c>
       <c r="K11" t="n">
-        <v>237.1267497530849</v>
+        <v>904.9941939737568</v>
       </c>
       <c r="L11" t="n">
-        <v>1110.036938141774</v>
+        <v>904.9941939737568</v>
       </c>
       <c r="M11" t="n">
-        <v>1110.036938141774</v>
+        <v>904.9941939737568</v>
       </c>
       <c r="N11" t="n">
-        <v>1110.036938141774</v>
+        <v>1283.168152544163</v>
       </c>
       <c r="O11" t="n">
-        <v>1982.947126530462</v>
+        <v>2157.386439986952</v>
       </c>
       <c r="P11" t="n">
-        <v>2811.257001363858</v>
+        <v>2985.696314820348</v>
       </c>
       <c r="Q11" t="n">
-        <v>3357.755787322453</v>
+        <v>3532.195100778943</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.90985207551</v>
+        <v>3532.195100778943</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.257978259347</v>
+        <v>3488.253410290069</v>
       </c>
       <c r="T11" t="n">
-        <v>3223.190751132386</v>
+        <v>3268.186183163108</v>
       </c>
       <c r="U11" t="n">
-        <v>2963.968448449403</v>
+        <v>3268.186183163108</v>
       </c>
       <c r="V11" t="n">
-        <v>2601.351498383229</v>
+        <v>2905.569233096935</v>
       </c>
       <c r="W11" t="n">
-        <v>2196.496043794263</v>
+        <v>2905.569233096935</v>
       </c>
       <c r="X11" t="n">
-        <v>1777.353580373574</v>
+        <v>2905.569233096935</v>
       </c>
       <c r="Y11" t="n">
-        <v>1369.067456673227</v>
+        <v>2497.283109396588</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.709942032803</v>
+        <v>576.8156470068717</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694453</v>
+        <v>470.359185843514</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159986</v>
+        <v>375.2688969900672</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429523</v>
+        <v>281.1484823170209</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591139</v>
+        <v>197.7646439331825</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252977</v>
+        <v>112.3795541993664</v>
       </c>
       <c r="H12" t="n">
-        <v>70.5381970415102</v>
+        <v>70.64390201557886</v>
       </c>
       <c r="I12" t="n">
-        <v>96.6018702019678</v>
+        <v>96.70757517603646</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681802</v>
+        <v>421.2659001422488</v>
       </c>
       <c r="K12" t="n">
-        <v>796.8820139467812</v>
+        <v>1101.999420212626</v>
       </c>
       <c r="L12" t="n">
-        <v>796.8820139467812</v>
+        <v>1101.999420212626</v>
       </c>
       <c r="M12" t="n">
-        <v>796.8820139467812</v>
+        <v>1101.999420212626</v>
       </c>
       <c r="N12" t="n">
-        <v>796.8820139467812</v>
+        <v>1101.999420212626</v>
       </c>
       <c r="O12" t="n">
-        <v>796.8820139467812</v>
+        <v>1101.999420212626</v>
       </c>
       <c r="P12" t="n">
-        <v>1616.605180425979</v>
+        <v>1616.710885400048</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1616.710885400048</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1733.883663494388</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1670.428225942771</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1540.249582273372</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1363.913035273341</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1164.79551733534</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944654</v>
+        <v>979.4727630685341</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333454</v>
+        <v>824.6053273074141</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0138431125662</v>
+        <v>698.1195480866348</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.092021880113</v>
+        <v>921.1399390925101</v>
       </c>
       <c r="C13" t="n">
-        <v>958.5303103633377</v>
+        <v>748.578227575735</v>
       </c>
       <c r="D13" t="n">
-        <v>792.6523175648604</v>
+        <v>582.7002347772577</v>
       </c>
       <c r="E13" t="n">
-        <v>622.8943138155976</v>
+        <v>412.942231027995</v>
       </c>
       <c r="F13" t="n">
-        <v>446.1872597773539</v>
+        <v>236.2351769897512</v>
       </c>
       <c r="G13" t="n">
-        <v>280.5959848031815</v>
+        <v>70.64390201557886</v>
       </c>
       <c r="H13" t="n">
-        <v>140.693810493556</v>
+        <v>70.64390201557886</v>
       </c>
       <c r="I13" t="n">
-        <v>70.5381970415102</v>
+        <v>70.64390201557886</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822062001</v>
+        <v>157.2235871802687</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773357</v>
+        <v>431.9820417514043</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452967</v>
+        <v>850.1919235193653</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1309.675790700278</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1751.934593857923</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109636</v>
+        <v>2171.603843083704</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079978</v>
+        <v>2519.110737054046</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2687.303511918378</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.197806944309</v>
+        <v>2687.303511918378</v>
       </c>
       <c r="S13" t="n">
-        <v>2687.197806944309</v>
+        <v>2528.062143216375</v>
       </c>
       <c r="T13" t="n">
-        <v>2441.318360522765</v>
+        <v>2282.18269679483</v>
       </c>
       <c r="U13" t="n">
-        <v>2162.88535977587</v>
+        <v>2003.749696047935</v>
       </c>
       <c r="V13" t="n">
-        <v>1875.9298516463</v>
+        <v>1716.794187918366</v>
       </c>
       <c r="W13" t="n">
-        <v>1603.903447232592</v>
+        <v>1585.769983163977</v>
       </c>
       <c r="X13" t="n">
-        <v>1358.511692566005</v>
+        <v>1340.378228497389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1131.092021880113</v>
+        <v>1112.958557811497</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5279,22 +5279,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q14" t="n">
         <v>4943.887948785925</v>
@@ -5358,22 +5358,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.0973401405614</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405614</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420841</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928213</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5452,34 +5452,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309242</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2668.021743923745</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2422.142297502201</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2143.709296755306</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1856.753788625736</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1584.727384212028</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X16" t="n">
-        <v>1339.33562954544</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.915958859548</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651787</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.07304516795</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771579</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5513,52 +5513,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>1612.575493976557</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2769.623329187108</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>3895.354312623555</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>3895.354312623555</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595854</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912871</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846697</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.727725908489</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="C19" t="n">
-        <v>843.1660143917137</v>
+        <v>639.1929661716205</v>
       </c>
       <c r="D19" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5689,34 +5689,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y19" t="n">
-        <v>1207.546344627476</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5911,10 +5911,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2668.021743923745</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832885</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5990,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.16863798718</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>875.5388337745584</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>702.9771222577833</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577833</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085205</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702767</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
         <v>2718.920450173579</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2099.150790389303</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1812.195282259734</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1540.168877846025</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.777123179437</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1067.357452493545</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.9519976190926</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>743.3902861023175</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>577.5122933038404</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>407.7542895545776</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545776</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804052</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2663.876401402277</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2417.996954980732</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2139.563954233837</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1852.608446104268</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1580.582041690559</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1335.190287023971</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1107.77061633808</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>3137.402081918264</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>4117.581748488571</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P29" t="n">
-        <v>4945.891623321967</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6540,22 +6540,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>934.6074576929152</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="N32" t="n">
-        <v>3137.402081918264</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O32" t="n">
-        <v>4117.581748488571</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P32" t="n">
-        <v>4945.891623321967</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6777,25 +6777,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K33" t="n">
-        <v>693.7847748441449</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L33" t="n">
-        <v>1648.327823655249</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="M33" t="n">
-        <v>1648.327823655249</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>3351.656731261992</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>3351.656731261992</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>4331.836397832299</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
-        <v>4331.836397832299</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581786</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581786</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>97.56670367581786</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>97.56670367581786</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>553.4185071663808</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.806465154627</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O36" t="n">
-        <v>1760.806465154627</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.806465154627</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
-        <v>1760.806465154627</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936681</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080667</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716802</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463123</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G37" t="n">
-        <v>293.329412385016</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882665</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581788</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>495.7456864773249</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>930.0289214806457</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1405.586141896919</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2699.647500885579</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947931</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976694</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703678</v>
+        <v>1241.939960298639</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.295274783585</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M38" t="n">
-        <v>3334.372458245846</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N38" t="n">
-        <v>3334.372458245846</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
         <v>4607.415497673521</v>
@@ -7208,7 +7208,7 @@
         <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W38" t="n">
         <v>3629.919912574026</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7257,19 +7257,19 @@
         <v>448.1887018024878</v>
       </c>
       <c r="L39" t="n">
-        <v>1402.731750613591</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M39" t="n">
-        <v>1402.731750613591</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N39" t="n">
-        <v>1402.731750613591</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O39" t="n">
-        <v>1402.731750613591</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P39" t="n">
-        <v>1402.731750613591</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q39" t="n">
         <v>1643.633687060287</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7354,28 +7354,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
@@ -7412,25 +7412,25 @@
         <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L41" t="n">
-        <v>1367.171683086914</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M41" t="n">
-        <v>1367.171683086914</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
@@ -7546,34 +7546,34 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936671</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7588,10 +7588,10 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7603,10 +7603,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7649,25 +7649,25 @@
         <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>540.3167323207291</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>1615.376698573589</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2772.424533784139</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>3898.155517220586</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>4878.335183790892</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4878.335183790892</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
@@ -7679,19 +7679,19 @@
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>97.60290339162182</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>422.1612283578341</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1322.355210928775</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1322.355210928775</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1322.355210928775</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1322.355210928775</v>
       </c>
       <c r="Q45" t="n">
         <v>1643.633687060287</v>
@@ -7783,19 +7783,19 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H46" t="n">
         <v>169.8269454882664</v>
@@ -7816,19 +7816,19 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,7 +7846,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,13 +8292,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,13 +8377,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>451.6762470063803</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>542.045482856851</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568509</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.045482856851</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>149.7561640017092</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568509</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>24.09934518255614</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>168.271265365227</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188775</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>381.9938975458654</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188774</v>
+        <v>883.0487751947358</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>379.5169886652536</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9176,16 +9176,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>507.105909296743</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9638,13 +9638,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L23" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9653,10 +9653,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10127,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.8387779969844</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>401.1029595648664</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10367,10 +10367,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>243.3352893400963</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>918.6111938608278</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10671,10 +10671,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>460.4563671621848</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N36" t="n">
-        <v>1219.583795947723</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>901.152332228357</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>7.571051709083804</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q39" t="n">
-        <v>243.3352893400966</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11060,28 +11060,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>996.9910187763894</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>7.571051709083804</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>7.571051709084259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,19 +11370,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949897315</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>324.5237132641535</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>4.715126812944734</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948859</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>259.0664234093733</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>39.31308149401658</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>18.31929241554604</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-8.119939711684393e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>107.2592358276519</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>197.8082562505567</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.5921776627221</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.28436272291265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>63.14631452530537</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>103.155346731394</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>841013.8594077198</v>
+        <v>855367.4087308467</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>841013.8594077198</v>
+        <v>855979.6618769206</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>848259.2436266224</v>
+        <v>855979.6618769206</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>668431.9629156173</v>
+        <v>669106.6844981842</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>870919.6152842887</v>
+        <v>870919.6152842888</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>870919.6152842887</v>
+        <v>870919.6152842889</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>882080.1264328142</v>
+        <v>884854.2189138731</v>
       </c>
     </row>
     <row r="14">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134036.8299726021</v>
+        <v>133934.7877815898</v>
       </c>
       <c r="C2" t="n">
         <v>134036.8299726021</v>
       </c>
       <c r="D2" t="n">
-        <v>134036.829972602</v>
+        <v>134036.8299726021</v>
       </c>
       <c r="E2" t="n">
-        <v>101090.9741156061</v>
+        <v>101193.0163066183</v>
       </c>
       <c r="F2" t="n">
         <v>131714.396034338</v>
@@ -26329,10 +26329,10 @@
         <v>131714.396034338</v>
       </c>
       <c r="H2" t="n">
-        <v>131714.3960343381</v>
+        <v>131714.396034338</v>
       </c>
       <c r="I2" t="n">
-        <v>131714.3960343381</v>
+        <v>131714.396034338</v>
       </c>
       <c r="J2" t="n">
         <v>131714.396034338</v>
@@ -26341,7 +26341,7 @@
         <v>131714.396034338</v>
       </c>
       <c r="L2" t="n">
-        <v>131714.3960343381</v>
+        <v>131714.396034338</v>
       </c>
       <c r="M2" t="n">
         <v>134036.8299726021</v>
@@ -26350,10 +26350,10 @@
         <v>134036.8299726021</v>
       </c>
       <c r="O2" t="n">
+        <v>134036.8299726022</v>
+      </c>
+      <c r="P2" t="n">
         <v>134036.8299726021</v>
-      </c>
-      <c r="P2" t="n">
-        <v>134036.8299726022</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36576.56611835361</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101421.5662728175</v>
+        <v>64353.58184153309</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238706</v>
+        <v>113238.4356313707</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29801.37042610254</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83016.20625515991</v>
+        <v>66700.39569712243</v>
       </c>
       <c r="N3" t="n">
-        <v>97121.6479776909</v>
+        <v>82426.51302796692</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>165030.1189677638</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>186257.93244011</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>62504.97940420081</v>
+        <v>62568.07252505936</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904277</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26442,22 +26442,22 @@
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904281</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904281</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
+        <v>86781.92928567609</v>
+      </c>
+      <c r="N4" t="n">
         <v>94325.77438500365</v>
       </c>
-      <c r="N4" t="n">
-        <v>94325.77438500366</v>
-      </c>
       <c r="O4" t="n">
+        <v>94325.77438500363</v>
+      </c>
+      <c r="P4" t="n">
         <v>94325.77438500365</v>
-      </c>
-      <c r="P4" t="n">
-        <v>94325.77438500366</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>66583.96535769654</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154774</v>
+        <v>53689.36553183993</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,10 +26500,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
         <v>75515.61472608971</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-273540.231666197</v>
+        <v>-329008.5747538866</v>
       </c>
       <c r="C6" t="n">
-        <v>-131348.9310064871</v>
+        <v>-105438.782848714</v>
       </c>
       <c r="D6" t="n">
-        <v>-155381.6339435581</v>
+        <v>-105438.782848714</v>
       </c>
       <c r="E6" t="n">
-        <v>-116444.60131296</v>
+        <v>-79746.44172847395</v>
       </c>
       <c r="F6" t="n">
-        <v>-141060.4399643679</v>
+        <v>-140705.0740112507</v>
       </c>
       <c r="G6" t="n">
-        <v>-27443.41404049727</v>
+        <v>-27466.63837987994</v>
       </c>
       <c r="H6" t="n">
-        <v>-27443.41404049723</v>
+        <v>-27466.63837987997</v>
       </c>
       <c r="I6" t="n">
-        <v>-27443.41404049727</v>
+        <v>-27466.63837987997</v>
       </c>
       <c r="J6" t="n">
-        <v>-138457.8793854875</v>
+        <v>-202117.9870975861</v>
       </c>
       <c r="K6" t="n">
-        <v>-27443.4140404973</v>
+        <v>-27466.63837987997</v>
       </c>
       <c r="L6" t="n">
-        <v>-57244.78446659978</v>
+        <v>-27466.63837987997</v>
       </c>
       <c r="M6" t="n">
-        <v>-118820.7653936512</v>
+        <v>-98528.65354845705</v>
       </c>
       <c r="N6" t="n">
-        <v>-132926.2071161821</v>
+        <v>-118231.0721664582</v>
       </c>
       <c r="O6" t="n">
-        <v>-35804.55913849123</v>
+        <v>-35804.55913849118</v>
       </c>
       <c r="P6" t="n">
-        <v>-35804.5591384912</v>
+        <v>-35804.55913849125</v>
       </c>
     </row>
   </sheetData>
@@ -26719,10 +26719,10 @@
         <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874736</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>542.045482856851</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188775</v>
+        <v>883.0487751947358</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>117.7496253367466</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>339.6819801620265</v>
+        <v>215.5335685868787</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658678</v>
+        <v>395.2117281900096</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367466</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>281.0052727250045</v>
+        <v>215.5335685868787</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658678</v>
+        <v>336.5350207529874</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367466</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>339.6819801620265</v>
+        <v>215.5335685868787</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658678</v>
+        <v>395.2117281900096</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>105.9706131526086</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>224.7998137093334</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>131.2385495991672</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>27.46390359488947</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>137.7501244718736</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>52.65760510107381</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.04405367599918</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>102.9863699957345</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>50.45407964317427</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>173.0679241113353</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>219.0118993322381</v>
       </c>
       <c r="V10" t="n">
-        <v>176.0733061834923</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,13 +35012,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>451.6762470063803</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>542.045482856851</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568509</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.045482856851</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>149.7561640017092</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568509</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>24.09934518255614</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>168.271265365227</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188775</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>381.9938975458654</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188774</v>
+        <v>883.0487751947358</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>379.5169886652536</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,25 +35647,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165025</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>507.105909296743</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165111</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36279,19 +36279,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36358,13 +36358,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L23" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36373,10 +36373,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908061</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,13 +36847,13 @@
         <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.8387779969844</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>401.1029595648664</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37081,16 +37081,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>243.3352893400963</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>918.6111938608278</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>460.4563671621848</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N36" t="n">
-        <v>1219.583795947723</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
@@ -37543,28 +37543,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>901.152332228357</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>7.571051709083804</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889937</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q39" t="n">
-        <v>243.3352893400966</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37780,28 +37780,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>996.9910187763894</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>7.571051709083804</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>7.571051709084259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949897315</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>324.5237132641535</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38184,10 +38184,10 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
